--- a/Exponential.xlsx
+++ b/Exponential.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -482,54 +482,138 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7364449749761809E-2"/>
+                  <c:y val="-4.3869782370373575E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1651</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1926</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2635</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3014</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3009</c:v>
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>1651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20000</c:v>
+                  <c:v>2635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>3014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200000</c:v>
+                  <c:v>3009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,7 +624,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -571,54 +655,127 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5041852383194796E-2"/>
+                  <c:y val="-5.172739652880623E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>247</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1306</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5814</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19216</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29188</c:v>
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20000</c:v>
+                  <c:v>5814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>19216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200000</c:v>
+                  <c:v>29188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,6 +2531,21 @@
         <v>0.10309031108674797</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3017</v>
+      </c>
+      <c r="B7">
+        <v>48189</v>
+      </c>
+      <c r="C7">
+        <v>400000</v>
+      </c>
+      <c r="D7">
+        <f>A7/B7</f>
+        <v>6.260764904853805E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Exponential.xlsx
+++ b/Exponential.xlsx
@@ -145,7 +145,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -166,12 +166,71 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
@@ -186,30 +245,162 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.6842105263157894</c:v>
+                  <c:v>1651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4747320061255742</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45321637426900585</c:v>
+                  <c:v>2635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15684845961698585</c:v>
+                  <c:v>3014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10309031108674797</c:v>
+                  <c:v>3009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10670</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -224,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373365952"/>
-        <c:axId val="373367128"/>
+        <c:axId val="390282552"/>
+        <c:axId val="9295096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373365952"/>
+        <c:axId val="390282552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -285,12 +476,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373367128"/>
+        <c:crossAx val="9295096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373367128"/>
+        <c:axId val="9295096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,573 +538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373365952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.7364449749761809E-2"/>
-                  <c:y val="-4.3869782370373575E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1651</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2635</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.5041852383194796E-2"/>
-                  <c:y val="-5.172739652880623E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1306</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5814</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29188</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48189</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="457417640"/>
-        <c:axId val="457417248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="457417640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="457417248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="457417248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="457417640"/>
+        <c:crossAx val="390282552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1034,46 +659,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1590,554 +1175,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2162,7 +1201,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2434,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,14 +1500,14 @@
         <v>1651</v>
       </c>
       <c r="B2">
-        <v>247</v>
+        <v>2647</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2">
-        <f>A2/B2</f>
-        <v>6.6842105263157894</v>
+        <f t="shared" ref="D2:D7" si="0">A2/B2</f>
+        <v>0.62372497166603702</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,14 +1515,14 @@
         <v>1926</v>
       </c>
       <c r="B3">
-        <v>1306</v>
+        <v>7248</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3">
-        <f>A3/B3</f>
-        <v>1.4747320061255742</v>
+        <f t="shared" si="0"/>
+        <v>0.26572847682119205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2491,14 +1530,14 @@
         <v>2635</v>
       </c>
       <c r="B4">
-        <v>5814</v>
+        <v>10670</v>
       </c>
       <c r="C4">
         <v>20000</v>
       </c>
       <c r="D4">
-        <f>A4/B4</f>
-        <v>0.45321637426900585</v>
+        <f t="shared" si="0"/>
+        <v>0.24695407685098406</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,14 +1545,14 @@
         <v>3014</v>
       </c>
       <c r="B5">
-        <v>19216</v>
+        <v>15397</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5">
-        <f>A5/B5</f>
-        <v>0.15684845961698585</v>
+        <f t="shared" si="0"/>
+        <v>0.19575241930246151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2521,14 +1560,14 @@
         <v>3009</v>
       </c>
       <c r="B6">
-        <v>29188</v>
+        <v>15366</v>
       </c>
       <c r="C6">
         <v>200000</v>
       </c>
       <c r="D6">
-        <f>A6/B6</f>
-        <v>0.10309031108674797</v>
+        <f t="shared" si="0"/>
+        <v>0.19582194455290902</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,14 +1575,29 @@
         <v>3017</v>
       </c>
       <c r="B7">
-        <v>48189</v>
+        <v>15317</v>
       </c>
       <c r="C7">
         <v>400000</v>
       </c>
       <c r="D7">
-        <f>A7/B7</f>
-        <v>6.260764904853805E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.19697068616569824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3002</v>
+      </c>
+      <c r="B8">
+        <v>15462</v>
+      </c>
+      <c r="C8">
+        <v>800000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="1">A8/B8</f>
+        <v>0.19415340835596948</v>
       </c>
     </row>
   </sheetData>
